--- a/examples/sources/data/unsolved/to_schedule/2019-03-01.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-01.xlsx
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
